--- a/Home Task Collections.xlsx
+++ b/Home Task Collections.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -976,13 +976,13 @@
         <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>44</v>
@@ -1053,13 +1053,13 @@
         <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>44</v>

--- a/Home Task Collections.xlsx
+++ b/Home Task Collections.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1079,7 +1079,7 @@
         <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>44</v>

--- a/Home Task Collections.xlsx
+++ b/Home Task Collections.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -866,7 +866,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>45</v>
@@ -895,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>45</v>
@@ -1059,7 +1059,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>44</v>
